--- a/data/pcss_proposal.xlsx
+++ b/data/pcss_proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B631ABA2-0B71-DD4E-9AA0-F3C656F1BB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A367322-AA45-7D4A-A8D4-24A0A5BB1CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{C315D302-CF41-C34E-8682-BB1C72A0EB2D}"/>
+    <workbookView xWindow="36300" yWindow="2840" windowWidth="28040" windowHeight="16300" xr2:uid="{C315D302-CF41-C34E-8682-BB1C72A0EB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
